--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1651EB-AF49-9A4C-82EC-60D9B4647210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864C467-8468-7541-AD3B-78C1370D604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1544,6 +1544,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,22 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1765,13 +1765,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,88 +2598,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="96" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="96" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="98" t="s">
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96" t="s">
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="98" t="s">
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="96" t="s">
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="98" t="s">
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="101"/>
+      <c r="BD7" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="96"/>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="99"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="103"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3050,7 +3050,9 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="105"/>
+      <c r="K11" s="96">
+        <v>2</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="57" t="s">
         <v>5</v>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3129,21 +3131,23 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="106"/>
+      <c r="K12" s="97">
+        <v>1</v>
+      </c>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="58"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="106"/>
+      <c r="R12" s="97"/>
       <c r="S12" s="56"/>
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
       <c r="X12" s="60"/>
-      <c r="Y12" s="106"/>
+      <c r="Y12" s="97"/>
       <c r="Z12" s="56"/>
       <c r="AA12" s="57"/>
       <c r="AB12" s="58"/>
@@ -3353,7 +3357,7 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="104">
+      <c r="K15" s="95">
         <v>1.5</v>
       </c>
       <c r="L15" s="56"/>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="D19" s="80">
         <f t="shared" ref="D19:D33" si="1">SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
@@ -3648,7 +3652,9 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="104"/>
+      <c r="Q19" s="95">
+        <v>0.5</v>
+      </c>
       <c r="R19" s="55"/>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
@@ -3707,7 +3713,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3715,13 +3721,17 @@
       <c r="H20" s="59"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="106"/>
+      <c r="K20" s="97">
+        <v>3.5</v>
+      </c>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="104"/>
+      <c r="Q20" s="95">
+        <v>2.5</v>
+      </c>
       <c r="R20" s="55"/>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
@@ -3780,7 +3790,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3794,7 +3804,9 @@
       <c r="N21" s="58"/>
       <c r="O21" s="59"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="104"/>
+      <c r="Q21" s="95">
+        <v>0.2</v>
+      </c>
       <c r="R21" s="55"/>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
@@ -3853,7 +3865,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3867,7 +3879,9 @@
       <c r="N22" s="58"/>
       <c r="O22" s="59"/>
       <c r="P22" s="87"/>
-      <c r="Q22" s="104"/>
+      <c r="Q22" s="95">
+        <v>0.2</v>
+      </c>
       <c r="R22" s="55"/>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
@@ -3926,7 +3940,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
@@ -3940,7 +3954,9 @@
       <c r="N23" s="58"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
-      <c r="Q23" s="107"/>
+      <c r="Q23" s="98">
+        <v>0.2</v>
+      </c>
       <c r="R23" s="55"/>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
@@ -3999,7 +4015,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -4013,7 +4029,9 @@
       <c r="N24" s="58"/>
       <c r="O24" s="59"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="104"/>
+      <c r="Q24" s="95">
+        <v>0.2</v>
+      </c>
       <c r="R24" s="55"/>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
@@ -4072,7 +4090,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4086,13 +4104,15 @@
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
       <c r="P25" s="87"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="106"/>
+      <c r="Q25" s="95">
+        <v>3.8</v>
+      </c>
+      <c r="R25" s="97"/>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="104"/>
+      <c r="W25" s="95"/>
       <c r="X25" s="54"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
@@ -4145,7 +4165,7 @@
       </c>
       <c r="D26" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -4159,13 +4179,15 @@
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
       <c r="P26" s="87"/>
-      <c r="Q26" s="55"/>
+      <c r="Q26" s="55">
+        <v>0.2</v>
+      </c>
       <c r="R26" s="55"/>
       <c r="S26" s="56"/>
       <c r="T26" s="57"/>
       <c r="U26" s="58"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="104"/>
+      <c r="W26" s="95"/>
       <c r="X26" s="54"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="56"/>
@@ -4214,7 +4236,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="48">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
@@ -4238,7 +4260,7 @@
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="104"/>
+      <c r="W27" s="95"/>
       <c r="X27" s="54"/>
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
@@ -4287,7 +4309,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="48">
-        <v>1</v>
+        <v>17.3</v>
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
@@ -4311,7 +4333,7 @@
       <c r="T28" s="57"/>
       <c r="U28" s="58"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="104"/>
+      <c r="W28" s="95"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="56"/>
@@ -4360,11 +4382,11 @@
         <v>60</v>
       </c>
       <c r="C29" s="48">
-        <v>17.3</v>
+        <v>0.2</v>
       </c>
       <c r="D29" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="50"/>
@@ -4378,15 +4400,17 @@
       <c r="N29" s="68"/>
       <c r="O29" s="69"/>
       <c r="P29" s="87"/>
-      <c r="Q29" s="54"/>
+      <c r="Q29" s="54">
+        <v>0.2</v>
+      </c>
       <c r="R29" s="55"/>
       <c r="S29" s="56"/>
       <c r="T29" s="57"/>
       <c r="U29" s="68"/>
       <c r="V29" s="69"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="106"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="97"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="68"/>
@@ -5498,7 +5522,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5520,7 +5544,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5544,7 +5568,7 @@
       </c>
       <c r="Q45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
@@ -5773,10 +5797,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5785,28 +5809,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="str">
+      <c r="A3" s="104" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>6</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="str">
+      <c r="A4" s="104" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1.5</v>
@@ -5819,28 +5843,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="str">
+      <c r="A5" s="104" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>40.5</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="str">
+      <c r="A6" s="104" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5852,11 +5876,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="str">
+      <c r="A7" s="104" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -5868,11 +5892,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="str">
+      <c r="A8" s="104" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864C467-8468-7541-AD3B-78C1370D604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C2C85-330D-3447-8FDD-2F2396DEBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,13 +1765,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>18.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3140,7 +3140,9 @@
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="97"/>
+      <c r="R12" s="97">
+        <v>0.5</v>
+      </c>
       <c r="S12" s="56"/>
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
@@ -3565,7 +3567,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>11.5</v>
+        <v>18.999999999999996</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3713,7 +3715,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3732,7 +3734,9 @@
       <c r="Q20" s="95">
         <v>2.5</v>
       </c>
-      <c r="R20" s="55"/>
+      <c r="R20" s="55">
+        <v>2</v>
+      </c>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
@@ -4090,7 +4094,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4107,7 +4111,9 @@
       <c r="Q25" s="95">
         <v>3.8</v>
       </c>
-      <c r="R25" s="97"/>
+      <c r="R25" s="97">
+        <v>4</v>
+      </c>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
@@ -4240,7 +4246,7 @@
       </c>
       <c r="D27" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -4255,7 +4261,9 @@
       <c r="O27" s="59"/>
       <c r="P27" s="87"/>
       <c r="Q27" s="54"/>
-      <c r="R27" s="55"/>
+      <c r="R27" s="55">
+        <v>0.5</v>
+      </c>
       <c r="S27" s="56"/>
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
@@ -4313,7 +4321,7 @@
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
@@ -4328,7 +4336,9 @@
       <c r="O28" s="59"/>
       <c r="P28" s="87"/>
       <c r="Q28" s="54"/>
-      <c r="R28" s="55"/>
+      <c r="R28" s="55">
+        <v>1</v>
+      </c>
       <c r="S28" s="56"/>
       <c r="T28" s="57"/>
       <c r="U28" s="58"/>
@@ -5522,7 +5532,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>16</v>
+        <v>23.999999999999996</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5572,7 +5582,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5820,7 +5830,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -5854,7 +5864,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>11.5</v>
+        <v>18.999999999999996</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C2C85-330D-3447-8FDD-2F2396DEBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806C12E-3A45-9D43-86EB-D151318D70F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1771,7 +1771,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.999999999999996</c:v>
+                  <c:v>26.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>18.999999999999996</v>
+        <v>26.999999999999996</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3741,7 +3741,9 @@
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
       <c r="V20" s="59"/>
-      <c r="W20" s="54"/>
+      <c r="W20" s="54">
+        <v>2</v>
+      </c>
       <c r="X20" s="54"/>
       <c r="Y20" s="55"/>
       <c r="Z20" s="56"/>
@@ -4094,7 +4096,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>7.8</v>
+        <v>13.8</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4118,7 +4120,9 @@
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="95"/>
+      <c r="W25" s="95">
+        <v>6</v>
+      </c>
       <c r="X25" s="54"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
@@ -5532,7 +5536,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>23.999999999999996</v>
+        <v>31.999999999999996</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5602,7 +5606,7 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
@@ -5864,7 +5868,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>18.999999999999996</v>
+        <v>26.999999999999996</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806C12E-3A45-9D43-86EB-D151318D70F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12178D-7829-F74C-BB06-01A3580796FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1774,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.999999999999996</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,8 +2281,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>26.999999999999996</v>
+        <v>35</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3744,7 +3747,9 @@
       <c r="W20" s="54">
         <v>2</v>
       </c>
-      <c r="X20" s="54"/>
+      <c r="X20" s="54">
+        <v>2</v>
+      </c>
       <c r="Y20" s="55"/>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
@@ -4096,7 +4101,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>13.8</v>
+        <v>18.8</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4123,7 +4128,9 @@
       <c r="W25" s="95">
         <v>6</v>
       </c>
-      <c r="X25" s="54"/>
+      <c r="X25" s="54">
+        <v>5</v>
+      </c>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
@@ -4467,11 +4474,13 @@
       <c r="A30" s="12">
         <v>312</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" s="48"/>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
@@ -4492,7 +4501,9 @@
       <c r="U30" s="68"/>
       <c r="V30" s="69"/>
       <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
+      <c r="X30" s="55">
+        <v>1</v>
+      </c>
       <c r="Y30" s="55"/>
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
@@ -5536,7 +5547,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>31.999999999999996</v>
+        <v>40</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5610,7 +5621,7 @@
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
@@ -5868,7 +5879,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>26.999999999999996</v>
+        <v>35</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12178D-7829-F74C-BB06-01A3580796FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8508F6-816C-C045-BF42-3AB7F063700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Nr.</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>A010</t>
+  </si>
+  <si>
+    <t>A011</t>
   </si>
 </sst>
 </file>
@@ -1768,13 +1771,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2281,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2883,7 +2886,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3124,7 +3127,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3152,7 +3155,9 @@
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
       <c r="X12" s="60"/>
-      <c r="Y12" s="97"/>
+      <c r="Y12" s="97">
+        <v>1</v>
+      </c>
       <c r="Z12" s="56"/>
       <c r="AA12" s="57"/>
       <c r="AB12" s="58"/>
@@ -3570,7 +3575,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3718,7 +3723,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3750,7 +3755,9 @@
       <c r="X20" s="54">
         <v>2</v>
       </c>
-      <c r="Y20" s="55"/>
+      <c r="Y20" s="55">
+        <v>1</v>
+      </c>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
       <c r="AB20" s="58"/>
@@ -4101,7 +4108,7 @@
       </c>
       <c r="D25" s="80">
         <f t="shared" si="1"/>
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4131,7 +4138,9 @@
       <c r="X25" s="54">
         <v>5</v>
       </c>
-      <c r="Y25" s="55"/>
+      <c r="Y25" s="55">
+        <v>3</v>
+      </c>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="58"/>
@@ -4480,7 +4489,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
@@ -4504,7 +4513,9 @@
       <c r="X30" s="55">
         <v>1</v>
       </c>
-      <c r="Y30" s="55"/>
+      <c r="Y30" s="55">
+        <v>2</v>
+      </c>
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
       <c r="AB30" s="68"/>
@@ -4547,11 +4558,13 @@
       <c r="A31" s="12">
         <v>313</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="C31" s="48"/>
       <c r="D31" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="50"/>
@@ -4573,7 +4586,9 @@
       <c r="V31" s="69"/>
       <c r="W31" s="54"/>
       <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
+      <c r="Y31" s="55">
+        <v>1</v>
+      </c>
       <c r="Z31" s="56"/>
       <c r="AA31" s="57"/>
       <c r="AB31" s="68"/>
@@ -5547,7 +5562,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5625,7 +5640,7 @@
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5845,7 +5860,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -5879,7 +5894,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/BLJ-Project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8508F6-816C-C045-BF42-3AB7F063700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B4DB6D-A2E7-DD45-85A1-B0D4EB81D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="19960" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1596,6 +1596,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1771,22 +1775,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="161" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA43" sqref="BA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2886,7 +2890,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3185,7 +3189,9 @@
       <c r="AX12" s="59"/>
       <c r="AY12" s="59"/>
       <c r="AZ12" s="59"/>
-      <c r="BA12" s="55"/>
+      <c r="BA12" s="55">
+        <v>1</v>
+      </c>
       <c r="BB12" s="56"/>
       <c r="BC12" s="57"/>
       <c r="BD12" s="58"/>
@@ -3575,7 +3581,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3723,7 +3729,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3785,7 +3791,9 @@
       <c r="AX20" s="59"/>
       <c r="AY20" s="87"/>
       <c r="AZ20" s="87"/>
-      <c r="BA20" s="55"/>
+      <c r="BA20" s="55">
+        <v>2</v>
+      </c>
       <c r="BB20" s="56"/>
       <c r="BC20" s="57"/>
       <c r="BD20" s="58"/>
@@ -4318,7 +4326,7 @@
       <c r="AX27" s="59"/>
       <c r="AY27" s="87"/>
       <c r="AZ27" s="87"/>
-      <c r="BA27" s="55"/>
+      <c r="BA27" s="108"/>
       <c r="BB27" s="56"/>
       <c r="BC27" s="57"/>
       <c r="BD27" s="58"/>
@@ -4489,7 +4497,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
@@ -4543,7 +4551,9 @@
       <c r="AX30" s="69"/>
       <c r="AY30" s="87"/>
       <c r="AZ30" s="87"/>
-      <c r="BA30" s="55"/>
+      <c r="BA30" s="55">
+        <v>1</v>
+      </c>
       <c r="BB30" s="56"/>
       <c r="BC30" s="57"/>
       <c r="BD30" s="68"/>
@@ -4778,7 +4788,7 @@
       </c>
       <c r="D34" s="41">
         <f>SUM(D35:D37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="30"/>
@@ -4991,7 +5001,7 @@
       <c r="C37" s="48"/>
       <c r="D37" s="80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="49"/>
       <c r="F37" s="50"/>
@@ -5041,7 +5051,9 @@
       <c r="AX37" s="59"/>
       <c r="AY37" s="87"/>
       <c r="AZ37" s="87"/>
-      <c r="BA37" s="55"/>
+      <c r="BA37" s="55">
+        <v>1</v>
+      </c>
       <c r="BB37" s="56"/>
       <c r="BC37" s="57"/>
       <c r="BD37" s="58"/>
@@ -5279,7 +5291,7 @@
       </c>
       <c r="D41" s="41">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
@@ -5421,7 +5433,7 @@
       <c r="C43" s="48"/>
       <c r="D43" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -5471,7 +5483,9 @@
       <c r="AX43" s="59"/>
       <c r="AY43" s="87"/>
       <c r="AZ43" s="87"/>
-      <c r="BA43" s="55"/>
+      <c r="BA43" s="55">
+        <v>3</v>
+      </c>
       <c r="BB43" s="56"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="58"/>
@@ -5562,7 +5576,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5752,7 +5766,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -5860,7 +5874,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -5894,7 +5908,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -5911,7 +5925,7 @@
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="78"/>
     </row>
@@ -5943,7 +5957,7 @@
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="78"/>
     </row>
